--- a/iPhone和iPad尺寸、分辨率和点.xlsx
+++ b/iPhone和iPad尺寸、分辨率和点.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="iPhone" sheetId="1" r:id="rId1"/>
+    <sheet name="iPad" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>设备</t>
     <rPh sb="0" eb="1">
@@ -54,23 +55,203 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iPhone \ iPhone 3G \ iPhone 3GS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone 4 \ iPhone 4S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone 5 \ iPhone 5C \ iPhone 5S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPad \ iPad 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPad 3 \ iPad 4 \ iPad Air</t>
+    <t>3.5inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 8 Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2436 X 1125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920 X 1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1334 X 750</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7 Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6s Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1136 X 640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6 Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 5/5s/5c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 4/4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920 X 1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1136 X 640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>960 X 640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320 X 480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>375 X 812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@3x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>414 X 736</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>375 X 667</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320 X 568</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320 X 480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@3x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@3x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@1x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 2G/3G/3GS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -78,19 +259,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iPad mini2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5inch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5inch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5inch</t>
+    <t>iPad mini 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -98,31 +275,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10.5inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9inch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2224 X 1668</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2732 X 2048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>7.9inch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>320 X 480</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>640 X 960</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>640 X 1136</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320 X 568</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>768  X 1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1536 X 2048</t>
+    <t>2048 X 1536</t>
+  </si>
+  <si>
+    <t>2048 X 1536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024 X 768</t>
+  </si>
+  <si>
+    <t>1024 X 768</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024 X 768</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The New iPad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5-inch iPad Pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.90inch iPad Pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1336 X 1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@1x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@1x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112 X 834</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
       <color theme="1"/>
@@ -154,6 +388,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -200,37 +439,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -251,6 +459,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -258,30 +486,39 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -572,116 +809,603 @@
     <col min="2" max="2" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
